--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rRene\Coding\altersstruktur-ubc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8172F286-7756-4118-97B3-379776C46020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29856443-015F-4AE5-B19B-3007F1D1A301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,6 +450,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>0.22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0.66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rRene\Coding\altersstruktur-ubc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29856443-015F-4AE5-B19B-3007F1D1A301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD56FDA-5A35-4C15-9CF7-8952A7320DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +66,9 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>TECH</t>
   </si>
 </sst>
 </file>
@@ -372,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -478,6 +495,174 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>0.7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>0.6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>0.3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
